--- a/Code/Results/Cases/Case_5_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_132/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017474373512258</v>
+        <v>1.065372528896858</v>
       </c>
       <c r="D2">
-        <v>1.03279824828548</v>
+        <v>1.063869726135687</v>
       </c>
       <c r="E2">
-        <v>1.02989429205702</v>
+        <v>1.06945816529658</v>
       </c>
       <c r="F2">
-        <v>1.038131836122031</v>
+        <v>1.077626730693453</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047780356847926</v>
+        <v>1.042356725517955</v>
       </c>
       <c r="J2">
-        <v>1.039144701628714</v>
+        <v>1.070327980816843</v>
       </c>
       <c r="K2">
-        <v>1.043818806624527</v>
+        <v>1.066587198548006</v>
       </c>
       <c r="L2">
-        <v>1.040952288182503</v>
+        <v>1.072160619036924</v>
       </c>
       <c r="M2">
-        <v>1.049084315177444</v>
+        <v>1.08030753462386</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024898110916464</v>
+        <v>1.066880291374387</v>
       </c>
       <c r="D3">
-        <v>1.038362346425987</v>
+        <v>1.06500833423003</v>
       </c>
       <c r="E3">
-        <v>1.03617665931587</v>
+        <v>1.070778536756297</v>
       </c>
       <c r="F3">
-        <v>1.044566163883326</v>
+        <v>1.078978983542377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049694456541108</v>
+        <v>1.042658868434197</v>
       </c>
       <c r="J3">
-        <v>1.044732297199304</v>
+        <v>1.071488678508453</v>
       </c>
       <c r="K3">
-        <v>1.04852682068052</v>
+        <v>1.067540090210305</v>
       </c>
       <c r="L3">
-        <v>1.046366667561922</v>
+        <v>1.073295914759032</v>
       </c>
       <c r="M3">
-        <v>1.054658881641575</v>
+        <v>1.081476212547099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029565409508403</v>
+        <v>1.067854960537445</v>
       </c>
       <c r="D4">
-        <v>1.041862769296055</v>
+        <v>1.06574402088958</v>
       </c>
       <c r="E4">
-        <v>1.040132349128718</v>
+        <v>1.071632255198699</v>
       </c>
       <c r="F4">
-        <v>1.048617614065342</v>
+        <v>1.079853312558215</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050885350840473</v>
+        <v>1.042852545510387</v>
       </c>
       <c r="J4">
-        <v>1.048241916720625</v>
+        <v>1.072238341950822</v>
       </c>
       <c r="K4">
-        <v>1.051480895999987</v>
+        <v>1.068155022228101</v>
       </c>
       <c r="L4">
-        <v>1.049769388006309</v>
+        <v>1.074029328100157</v>
       </c>
       <c r="M4">
-        <v>1.058162647601921</v>
+        <v>1.082231211260303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031496669873592</v>
+        <v>1.068264489347673</v>
       </c>
       <c r="D5">
-        <v>1.043311625664745</v>
+        <v>1.066053051444675</v>
       </c>
       <c r="E5">
-        <v>1.041770496077454</v>
+        <v>1.071991007378771</v>
       </c>
       <c r="F5">
-        <v>1.050295430659589</v>
+        <v>1.080220724962721</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051375061687512</v>
+        <v>1.042933530659424</v>
       </c>
       <c r="J5">
-        <v>1.049693285428225</v>
+        <v>1.072553173250723</v>
       </c>
       <c r="K5">
-        <v>1.052701759049812</v>
+        <v>1.068413147586795</v>
       </c>
       <c r="L5">
-        <v>1.051176995124432</v>
+        <v>1.074337372281104</v>
       </c>
       <c r="M5">
-        <v>1.059612136557171</v>
+        <v>1.082548326332786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03181917553332</v>
+        <v>1.068333238194525</v>
       </c>
       <c r="D6">
-        <v>1.043553595787467</v>
+        <v>1.066104924360006</v>
       </c>
       <c r="E6">
-        <v>1.042044130278808</v>
+        <v>1.072051234723897</v>
       </c>
       <c r="F6">
-        <v>1.050575691831995</v>
+        <v>1.080282406137341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051456657623033</v>
+        <v>1.042947102852417</v>
       </c>
       <c r="J6">
-        <v>1.049935600294033</v>
+        <v>1.072606015753811</v>
       </c>
       <c r="K6">
-        <v>1.052905543731207</v>
+        <v>1.068456465083194</v>
       </c>
       <c r="L6">
-        <v>1.05141202964295</v>
+        <v>1.074389077794368</v>
       </c>
       <c r="M6">
-        <v>1.059854168899722</v>
+        <v>1.082601554678378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029591334171501</v>
+        <v>1.067860433546391</v>
       </c>
       <c r="D7">
-        <v>1.041882216747327</v>
+        <v>1.065748151156951</v>
       </c>
       <c r="E7">
-        <v>1.04015433394015</v>
+        <v>1.071637049450723</v>
       </c>
       <c r="F7">
-        <v>1.048640131220923</v>
+        <v>1.079858222546055</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050891936779921</v>
+        <v>1.042853629352201</v>
       </c>
       <c r="J7">
-        <v>1.048261402956386</v>
+        <v>1.072242550022213</v>
       </c>
       <c r="K7">
-        <v>1.051497290509726</v>
+        <v>1.068158472847897</v>
       </c>
       <c r="L7">
-        <v>1.049788284943983</v>
+        <v>1.074033445307505</v>
       </c>
       <c r="M7">
-        <v>1.058182106481929</v>
+        <v>1.082235449687457</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020012606918542</v>
+        <v>1.065882285600336</v>
       </c>
       <c r="D8">
-        <v>1.034700103396728</v>
+        <v>1.064254747681384</v>
       </c>
       <c r="E8">
-        <v>1.032040964307437</v>
+        <v>1.069904528414337</v>
       </c>
       <c r="F8">
-        <v>1.040330412685054</v>
+        <v>1.078083872198963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048437397046915</v>
+        <v>1.042459215754636</v>
       </c>
       <c r="J8">
-        <v>1.04105579512019</v>
+        <v>1.070720533643294</v>
       </c>
       <c r="K8">
-        <v>1.045429691626434</v>
+        <v>1.06690957708747</v>
       </c>
       <c r="L8">
-        <v>1.042803730055742</v>
+        <v>1.072544548336917</v>
       </c>
       <c r="M8">
-        <v>1.050990449069621</v>
+        <v>1.080702748746967</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002001420622031</v>
+        <v>1.06238894796998</v>
       </c>
       <c r="D9">
-        <v>1.021219683790625</v>
+        <v>1.061614823044062</v>
       </c>
       <c r="E9">
-        <v>1.016838293061678</v>
+        <v>1.066846418508554</v>
       </c>
       <c r="F9">
-        <v>1.024760764128317</v>
+        <v>1.074951907571962</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043724029040183</v>
+        <v>1.041750136788558</v>
       </c>
       <c r="J9">
-        <v>1.02748370098772</v>
+        <v>1.068027732235108</v>
       </c>
       <c r="K9">
-        <v>1.033977618423226</v>
+        <v>1.06469604531473</v>
       </c>
       <c r="L9">
-        <v>1.029663962698464</v>
+        <v>1.069911549159661</v>
       </c>
       <c r="M9">
-        <v>1.037464494359378</v>
+        <v>1.077992444153969</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.989094769103638</v>
+        <v>1.060054558507436</v>
       </c>
       <c r="D10">
-        <v>1.011585568870598</v>
+        <v>1.059849014048126</v>
       </c>
       <c r="E10">
-        <v>1.005988034621899</v>
+        <v>1.064803900057788</v>
       </c>
       <c r="F10">
-        <v>1.013649709524338</v>
+        <v>1.072860051467304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040284576390583</v>
+        <v>1.041267872235626</v>
       </c>
       <c r="J10">
-        <v>1.017747839666961</v>
+        <v>1.066224975744576</v>
       </c>
       <c r="K10">
-        <v>1.025748746260956</v>
+        <v>1.063211512394594</v>
       </c>
       <c r="L10">
-        <v>1.0202500084255</v>
+        <v>1.068149646741638</v>
       </c>
       <c r="M10">
-        <v>1.027776811420507</v>
+        <v>1.076178924115093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9832567564037253</v>
+        <v>1.059042349516443</v>
       </c>
       <c r="D11">
-        <v>1.007236307630657</v>
+        <v>1.059082955269732</v>
       </c>
       <c r="E11">
-        <v>1.00109255492137</v>
+        <v>1.063918505300229</v>
       </c>
       <c r="F11">
-        <v>1.008636951966981</v>
+        <v>1.071953268280647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038715345709818</v>
+        <v>1.041056763240856</v>
       </c>
       <c r="J11">
-        <v>1.013343052107376</v>
+        <v>1.065442506219419</v>
       </c>
       <c r="K11">
-        <v>1.022023035983036</v>
+        <v>1.062566544148674</v>
       </c>
       <c r="L11">
-        <v>1.015993896627469</v>
+        <v>1.067385105036826</v>
       </c>
       <c r="M11">
-        <v>1.023397805624552</v>
+        <v>1.075392011819893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9810472547715602</v>
+        <v>1.058666151541671</v>
       </c>
       <c r="D12">
-        <v>1.005591754101746</v>
+        <v>1.058798184041609</v>
       </c>
       <c r="E12">
-        <v>0.9992418195999817</v>
+        <v>1.063589478687136</v>
       </c>
       <c r="F12">
-        <v>1.006741950301923</v>
+        <v>1.071616293249205</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038119533437684</v>
+        <v>1.040978002916814</v>
       </c>
       <c r="J12">
-        <v>1.011675966299598</v>
+        <v>1.065151576543331</v>
       </c>
       <c r="K12">
-        <v>1.020612603349238</v>
+        <v>1.062326645857332</v>
       </c>
       <c r="L12">
-        <v>1.014383559579015</v>
+        <v>1.067100870590837</v>
       </c>
       <c r="M12">
-        <v>1.021741115090135</v>
+        <v>1.075099464919253</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9815231177834726</v>
+        <v>1.058746857295587</v>
       </c>
       <c r="D13">
-        <v>1.005945871834223</v>
+        <v>1.058859278599848</v>
       </c>
       <c r="E13">
-        <v>0.9996403190178884</v>
+        <v>1.063660062964154</v>
       </c>
       <c r="F13">
-        <v>1.007149977736096</v>
+        <v>1.071688582662067</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038247938385589</v>
+        <v>1.040994912915216</v>
       </c>
       <c r="J13">
-        <v>1.012035006849157</v>
+        <v>1.065213994963236</v>
       </c>
       <c r="K13">
-        <v>1.020916383738584</v>
+        <v>1.062378119787077</v>
       </c>
       <c r="L13">
-        <v>1.014730356107539</v>
+        <v>1.067161851225112</v>
       </c>
       <c r="M13">
-        <v>1.022097887357151</v>
+        <v>1.075162228740697</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9830749768915363</v>
+        <v>1.059011257376326</v>
       </c>
       <c r="D14">
-        <v>1.007100975505616</v>
+        <v>1.059059420565754</v>
       </c>
       <c r="E14">
-        <v>1.000940249051607</v>
+        <v>1.063891310983164</v>
       </c>
       <c r="F14">
-        <v>1.008481001703209</v>
+        <v>1.071925417022796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038666365197523</v>
+        <v>1.041050259936621</v>
       </c>
       <c r="J14">
-        <v>1.013205897528435</v>
+        <v>1.065418463741438</v>
       </c>
       <c r="K14">
-        <v>1.021907003734722</v>
+        <v>1.062546720805812</v>
       </c>
       <c r="L14">
-        <v>1.015861401024195</v>
+        <v>1.067361615251592</v>
       </c>
       <c r="M14">
-        <v>1.023261493116182</v>
+        <v>1.075367834986453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9840255813776275</v>
+        <v>1.059174133809282</v>
       </c>
       <c r="D15">
-        <v>1.00780874880991</v>
+        <v>1.059182704958273</v>
       </c>
       <c r="E15">
-        <v>1.001736807379196</v>
+        <v>1.064033770262268</v>
       </c>
       <c r="F15">
-        <v>1.009296623121349</v>
+        <v>1.072071317725525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038922428850035</v>
+        <v>1.041084315290195</v>
       </c>
       <c r="J15">
-        <v>1.01392313901777</v>
+        <v>1.065544405683791</v>
       </c>
       <c r="K15">
-        <v>1.022513773053133</v>
+        <v>1.062650557810969</v>
       </c>
       <c r="L15">
-        <v>1.016554298307593</v>
+        <v>1.067484663226367</v>
       </c>
       <c r="M15">
-        <v>1.023974357206366</v>
+        <v>1.075494482143668</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9894766731550071</v>
+        <v>1.060121705269048</v>
       </c>
       <c r="D16">
-        <v>1.011870277943966</v>
+        <v>1.059899823851725</v>
       </c>
       <c r="E16">
-        <v>1.006308552664681</v>
+        <v>1.064862639850438</v>
       </c>
       <c r="F16">
-        <v>1.013977915061473</v>
+        <v>1.072920210209623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040386960980815</v>
+        <v>1.041281834550928</v>
       </c>
       <c r="J16">
-        <v>1.018035977074762</v>
+        <v>1.066276865919066</v>
       </c>
       <c r="K16">
-        <v>1.025992409865534</v>
+        <v>1.06325427101164</v>
       </c>
       <c r="L16">
-        <v>1.020528484981178</v>
+        <v>1.068200352142035</v>
       </c>
       <c r="M16">
-        <v>1.028063347965884</v>
+        <v>1.076231113756611</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9928268790422732</v>
+        <v>1.060715710773628</v>
       </c>
       <c r="D17">
-        <v>1.014368836823018</v>
+        <v>1.060349261535749</v>
       </c>
       <c r="E17">
-        <v>1.009121674387699</v>
+        <v>1.065382303904696</v>
       </c>
       <c r="F17">
-        <v>1.016858553690563</v>
+        <v>1.073452427387221</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041283608848919</v>
+        <v>1.041405120132821</v>
       </c>
       <c r="J17">
-        <v>1.020563528144948</v>
+        <v>1.066735815867277</v>
       </c>
       <c r="K17">
-        <v>1.028129533025478</v>
+        <v>1.063632384045327</v>
       </c>
       <c r="L17">
-        <v>1.022971635807333</v>
+        <v>1.06864884576039</v>
       </c>
       <c r="M17">
-        <v>1.030577310100168</v>
+        <v>1.076692738838734</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9947572009115085</v>
+        <v>1.061062049294344</v>
       </c>
       <c r="D18">
-        <v>1.015809239498523</v>
+        <v>1.060611271177061</v>
       </c>
       <c r="E18">
-        <v>1.01074368865631</v>
+        <v>1.065685321878091</v>
       </c>
       <c r="F18">
-        <v>1.018519533270576</v>
+        <v>1.073762764986951</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041798964794225</v>
+        <v>1.041476810148868</v>
       </c>
       <c r="J18">
-        <v>1.022019748615622</v>
+        <v>1.067003334132588</v>
       </c>
       <c r="K18">
-        <v>1.029360552783221</v>
+        <v>1.063852723293633</v>
       </c>
       <c r="L18">
-        <v>1.024379513641249</v>
+        <v>1.068910287941771</v>
       </c>
       <c r="M18">
-        <v>1.032026073138647</v>
+        <v>1.076961838471457</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9954114548283896</v>
+        <v>1.061180119140652</v>
       </c>
       <c r="D19">
-        <v>1.016297569070765</v>
+        <v>1.060700586132151</v>
       </c>
       <c r="E19">
-        <v>1.011293636052466</v>
+        <v>1.065788627527204</v>
       </c>
       <c r="F19">
-        <v>1.019082697682206</v>
+        <v>1.073868566034593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041973417554356</v>
+        <v>1.041501217263119</v>
       </c>
       <c r="J19">
-        <v>1.022513291444915</v>
+        <v>1.067094520674275</v>
       </c>
       <c r="K19">
-        <v>1.029777724939182</v>
+        <v>1.063927818191211</v>
       </c>
       <c r="L19">
-        <v>1.024856719635165</v>
+        <v>1.068999406573157</v>
       </c>
       <c r="M19">
-        <v>1.03251715045905</v>
+        <v>1.077053567773304</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9924699192070229</v>
+        <v>1.060651993607725</v>
       </c>
       <c r="D20">
-        <v>1.014102535927991</v>
+        <v>1.060301055615952</v>
       </c>
       <c r="E20">
-        <v>1.008821819395795</v>
+        <v>1.065326558559462</v>
       </c>
       <c r="F20">
-        <v>1.016551498164748</v>
+        <v>1.073395335459162</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041188203933541</v>
+        <v>1.041391915563812</v>
       </c>
       <c r="J20">
-        <v>1.020294230947482</v>
+        <v>1.066686593485869</v>
       </c>
       <c r="K20">
-        <v>1.02790186052814</v>
+        <v>1.063591837609974</v>
       </c>
       <c r="L20">
-        <v>1.022711301378272</v>
+        <v>1.068600742871539</v>
       </c>
       <c r="M20">
-        <v>1.030309421843036</v>
+        <v>1.076643227265906</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9826191557187061</v>
+        <v>1.058933404236012</v>
       </c>
       <c r="D21">
-        <v>1.006761648450351</v>
+        <v>1.059000489936498</v>
       </c>
       <c r="E21">
-        <v>1.000558368107955</v>
+        <v>1.063823218435758</v>
       </c>
       <c r="F21">
-        <v>1.008089984242013</v>
+        <v>1.07185567954249</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038543513853153</v>
+        <v>1.041033971156993</v>
       </c>
       <c r="J21">
-        <v>1.012861975860521</v>
+        <v>1.065358260713144</v>
       </c>
       <c r="K21">
-        <v>1.021616041748126</v>
+        <v>1.062497081108907</v>
       </c>
       <c r="L21">
-        <v>1.015529169750655</v>
+        <v>1.067302796657958</v>
       </c>
       <c r="M21">
-        <v>1.022919693373886</v>
+        <v>1.075307296088613</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9761862484521978</v>
+        <v>1.05785159093597</v>
       </c>
       <c r="D22">
-        <v>1.001976705706711</v>
+        <v>1.05818148072005</v>
       </c>
       <c r="E22">
-        <v>0.995174121472842</v>
+        <v>1.062877128984109</v>
       </c>
       <c r="F22">
-        <v>1.002577104567723</v>
+        <v>1.070886734873252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036805337156575</v>
+        <v>1.040806920128906</v>
       </c>
       <c r="J22">
-        <v>1.008008439221463</v>
+        <v>1.06452142966494</v>
       </c>
       <c r="K22">
-        <v>1.017509105115408</v>
+        <v>1.061806862160726</v>
       </c>
       <c r="L22">
-        <v>1.010841790015675</v>
+        <v>1.066485279519102</v>
       </c>
       <c r="M22">
-        <v>1.018097680806259</v>
+        <v>1.074465878792817</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9796204485223799</v>
+        <v>1.058425203407647</v>
       </c>
       <c r="D23">
-        <v>1.004530222567675</v>
+        <v>1.058615777064443</v>
       </c>
       <c r="E23">
-        <v>0.998047292744465</v>
+        <v>1.063378754224119</v>
       </c>
       <c r="F23">
-        <v>1.005518873964634</v>
+        <v>1.071400478206472</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037734259668833</v>
+        <v>1.040927474057438</v>
       </c>
       <c r="J23">
-        <v>1.010599444586564</v>
+        <v>1.06496520843903</v>
       </c>
       <c r="K23">
-        <v>1.019701721563992</v>
+        <v>1.062172942089881</v>
       </c>
       <c r="L23">
-        <v>1.013343821665404</v>
+        <v>1.066918799736614</v>
       </c>
       <c r="M23">
-        <v>1.020671491159585</v>
+        <v>1.074912070609507</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9926312872674907</v>
+        <v>1.060680785069293</v>
       </c>
       <c r="D24">
-        <v>1.014222918090399</v>
+        <v>1.060322838228284</v>
       </c>
       <c r="E24">
-        <v>1.008957368956193</v>
+        <v>1.065351747770016</v>
       </c>
       <c r="F24">
-        <v>1.01669030261881</v>
+        <v>1.073421133139955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041231336860723</v>
+        <v>1.041397882821241</v>
       </c>
       <c r="J24">
-        <v>1.020415970373472</v>
+        <v>1.066708835516142</v>
       </c>
       <c r="K24">
-        <v>1.028004783759176</v>
+        <v>1.063610159440827</v>
       </c>
       <c r="L24">
-        <v>1.022828988184722</v>
+        <v>1.068622478980505</v>
       </c>
       <c r="M24">
-        <v>1.03043052318686</v>
+        <v>1.076665599904441</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006805186697841</v>
+        <v>1.06329299933894</v>
       </c>
       <c r="D25">
-        <v>1.024811355289604</v>
+        <v>1.062298321835475</v>
       </c>
       <c r="E25">
-        <v>1.020886119404078</v>
+        <v>1.067637657734829</v>
       </c>
       <c r="F25">
-        <v>1.028906147046139</v>
+        <v>1.075762257629974</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044992037054785</v>
+        <v>1.041935126903195</v>
       </c>
       <c r="J25">
-        <v>1.031105679693069</v>
+        <v>1.068725196677537</v>
       </c>
       <c r="K25">
-        <v>1.037036340448409</v>
+        <v>1.065269838600204</v>
       </c>
       <c r="L25">
-        <v>1.033168631919319</v>
+        <v>1.070593380743781</v>
       </c>
       <c r="M25">
-        <v>1.041071712660397</v>
+        <v>1.078694275121936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_132/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065372528896858</v>
+        <v>1.01747437351226</v>
       </c>
       <c r="D2">
-        <v>1.063869726135687</v>
+        <v>1.032798248285482</v>
       </c>
       <c r="E2">
-        <v>1.06945816529658</v>
+        <v>1.029894292057021</v>
       </c>
       <c r="F2">
-        <v>1.077626730693453</v>
+        <v>1.038131836122032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042356725517955</v>
+        <v>1.047780356847927</v>
       </c>
       <c r="J2">
-        <v>1.070327980816843</v>
+        <v>1.039144701628716</v>
       </c>
       <c r="K2">
-        <v>1.066587198548006</v>
+        <v>1.043818806624528</v>
       </c>
       <c r="L2">
-        <v>1.072160619036924</v>
+        <v>1.040952288182504</v>
       </c>
       <c r="M2">
-        <v>1.08030753462386</v>
+        <v>1.049084315177446</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066880291374387</v>
+        <v>1.024898110916464</v>
       </c>
       <c r="D3">
-        <v>1.06500833423003</v>
+        <v>1.038362346425987</v>
       </c>
       <c r="E3">
-        <v>1.070778536756297</v>
+        <v>1.03617665931587</v>
       </c>
       <c r="F3">
-        <v>1.078978983542377</v>
+        <v>1.044566163883326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042658868434197</v>
+        <v>1.049694456541108</v>
       </c>
       <c r="J3">
-        <v>1.071488678508453</v>
+        <v>1.044732297199304</v>
       </c>
       <c r="K3">
-        <v>1.067540090210305</v>
+        <v>1.04852682068052</v>
       </c>
       <c r="L3">
-        <v>1.073295914759032</v>
+        <v>1.046366667561922</v>
       </c>
       <c r="M3">
-        <v>1.081476212547099</v>
+        <v>1.054658881641575</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067854960537445</v>
+        <v>1.029565409508404</v>
       </c>
       <c r="D4">
-        <v>1.06574402088958</v>
+        <v>1.041862769296056</v>
       </c>
       <c r="E4">
-        <v>1.071632255198699</v>
+        <v>1.040132349128719</v>
       </c>
       <c r="F4">
-        <v>1.079853312558215</v>
+        <v>1.048617614065343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042852545510387</v>
+        <v>1.050885350840473</v>
       </c>
       <c r="J4">
-        <v>1.072238341950822</v>
+        <v>1.048241916720626</v>
       </c>
       <c r="K4">
-        <v>1.068155022228101</v>
+        <v>1.051480895999988</v>
       </c>
       <c r="L4">
-        <v>1.074029328100157</v>
+        <v>1.049769388006309</v>
       </c>
       <c r="M4">
-        <v>1.082231211260303</v>
+        <v>1.058162647601922</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068264489347673</v>
+        <v>1.031496669873591</v>
       </c>
       <c r="D5">
-        <v>1.066053051444675</v>
+        <v>1.043311625664743</v>
       </c>
       <c r="E5">
-        <v>1.071991007378771</v>
+        <v>1.041770496077452</v>
       </c>
       <c r="F5">
-        <v>1.080220724962721</v>
+        <v>1.050295430659588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042933530659424</v>
+        <v>1.051375061687511</v>
       </c>
       <c r="J5">
-        <v>1.072553173250723</v>
+        <v>1.049693285428223</v>
       </c>
       <c r="K5">
-        <v>1.068413147586795</v>
+        <v>1.052701759049811</v>
       </c>
       <c r="L5">
-        <v>1.074337372281104</v>
+        <v>1.05117699512443</v>
       </c>
       <c r="M5">
-        <v>1.082548326332786</v>
+        <v>1.05961213655717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068333238194525</v>
+        <v>1.031819175533319</v>
       </c>
       <c r="D6">
-        <v>1.066104924360006</v>
+        <v>1.043553595787466</v>
       </c>
       <c r="E6">
-        <v>1.072051234723897</v>
+        <v>1.042044130278808</v>
       </c>
       <c r="F6">
-        <v>1.080282406137341</v>
+        <v>1.050575691831995</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042947102852417</v>
+        <v>1.051456657623032</v>
       </c>
       <c r="J6">
-        <v>1.072606015753811</v>
+        <v>1.049935600294032</v>
       </c>
       <c r="K6">
-        <v>1.068456465083194</v>
+        <v>1.052905543731206</v>
       </c>
       <c r="L6">
-        <v>1.074389077794368</v>
+        <v>1.051412029642949</v>
       </c>
       <c r="M6">
-        <v>1.082601554678378</v>
+        <v>1.059854168899721</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067860433546391</v>
+        <v>1.029591334171501</v>
       </c>
       <c r="D7">
-        <v>1.065748151156951</v>
+        <v>1.041882216747326</v>
       </c>
       <c r="E7">
-        <v>1.071637049450723</v>
+        <v>1.04015433394015</v>
       </c>
       <c r="F7">
-        <v>1.079858222546055</v>
+        <v>1.048640131220922</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042853629352201</v>
+        <v>1.05089193677992</v>
       </c>
       <c r="J7">
-        <v>1.072242550022213</v>
+        <v>1.048261402956385</v>
       </c>
       <c r="K7">
-        <v>1.068158472847897</v>
+        <v>1.051497290509726</v>
       </c>
       <c r="L7">
-        <v>1.074033445307505</v>
+        <v>1.049788284943983</v>
       </c>
       <c r="M7">
-        <v>1.082235449687457</v>
+        <v>1.058182106481929</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065882285600336</v>
+        <v>1.02001260691854</v>
       </c>
       <c r="D8">
-        <v>1.064254747681384</v>
+        <v>1.034700103396726</v>
       </c>
       <c r="E8">
-        <v>1.069904528414337</v>
+        <v>1.032040964307435</v>
       </c>
       <c r="F8">
-        <v>1.078083872198963</v>
+        <v>1.040330412685052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042459215754636</v>
+        <v>1.048437397046914</v>
       </c>
       <c r="J8">
-        <v>1.070720533643294</v>
+        <v>1.041055795120189</v>
       </c>
       <c r="K8">
-        <v>1.06690957708747</v>
+        <v>1.045429691626432</v>
       </c>
       <c r="L8">
-        <v>1.072544548336917</v>
+        <v>1.04280373005574</v>
       </c>
       <c r="M8">
-        <v>1.080702748746967</v>
+        <v>1.050990449069619</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06238894796998</v>
+        <v>1.002001420622031</v>
       </c>
       <c r="D9">
-        <v>1.061614823044062</v>
+        <v>1.021219683790625</v>
       </c>
       <c r="E9">
-        <v>1.066846418508554</v>
+        <v>1.016838293061678</v>
       </c>
       <c r="F9">
-        <v>1.074951907571962</v>
+        <v>1.024760764128317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041750136788558</v>
+        <v>1.043724029040183</v>
       </c>
       <c r="J9">
-        <v>1.068027732235108</v>
+        <v>1.02748370098772</v>
       </c>
       <c r="K9">
-        <v>1.06469604531473</v>
+        <v>1.033977618423226</v>
       </c>
       <c r="L9">
-        <v>1.069911549159661</v>
+        <v>1.029663962698464</v>
       </c>
       <c r="M9">
-        <v>1.077992444153969</v>
+        <v>1.037464494359377</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060054558507436</v>
+        <v>0.9890947691036361</v>
       </c>
       <c r="D10">
-        <v>1.059849014048126</v>
+        <v>1.011585568870596</v>
       </c>
       <c r="E10">
-        <v>1.064803900057788</v>
+        <v>1.005988034621897</v>
       </c>
       <c r="F10">
-        <v>1.072860051467304</v>
+        <v>1.013649709524337</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041267872235626</v>
+        <v>1.040284576390582</v>
       </c>
       <c r="J10">
-        <v>1.066224975744576</v>
+        <v>1.017747839666959</v>
       </c>
       <c r="K10">
-        <v>1.063211512394594</v>
+        <v>1.025748746260954</v>
       </c>
       <c r="L10">
-        <v>1.068149646741638</v>
+        <v>1.020250008425498</v>
       </c>
       <c r="M10">
-        <v>1.076178924115093</v>
+        <v>1.027776811420505</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059042349516443</v>
+        <v>0.9832567564037242</v>
       </c>
       <c r="D11">
-        <v>1.059082955269732</v>
+        <v>1.007236307630656</v>
       </c>
       <c r="E11">
-        <v>1.063918505300229</v>
+        <v>1.001092554921369</v>
       </c>
       <c r="F11">
-        <v>1.071953268280647</v>
+        <v>1.00863695196698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041056763240856</v>
+        <v>1.038715345709818</v>
       </c>
       <c r="J11">
-        <v>1.065442506219419</v>
+        <v>1.013343052107375</v>
       </c>
       <c r="K11">
-        <v>1.062566544148674</v>
+        <v>1.022023035983036</v>
       </c>
       <c r="L11">
-        <v>1.067385105036826</v>
+        <v>1.015993896627468</v>
       </c>
       <c r="M11">
-        <v>1.075392011819893</v>
+        <v>1.023397805624551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058666151541671</v>
+        <v>0.9810472547715589</v>
       </c>
       <c r="D12">
-        <v>1.058798184041609</v>
+        <v>1.005591754101745</v>
       </c>
       <c r="E12">
-        <v>1.063589478687136</v>
+        <v>0.9992418195999805</v>
       </c>
       <c r="F12">
-        <v>1.071616293249205</v>
+        <v>1.006741950301922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040978002916814</v>
+        <v>1.038119533437684</v>
       </c>
       <c r="J12">
-        <v>1.065151576543331</v>
+        <v>1.011675966299597</v>
       </c>
       <c r="K12">
-        <v>1.062326645857332</v>
+        <v>1.020612603349237</v>
       </c>
       <c r="L12">
-        <v>1.067100870590837</v>
+        <v>1.014383559579014</v>
       </c>
       <c r="M12">
-        <v>1.075099464919253</v>
+        <v>1.021741115090134</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058746857295587</v>
+        <v>0.9815231177834721</v>
       </c>
       <c r="D13">
-        <v>1.058859278599848</v>
+        <v>1.005945871834222</v>
       </c>
       <c r="E13">
-        <v>1.063660062964154</v>
+        <v>0.9996403190178879</v>
       </c>
       <c r="F13">
-        <v>1.071688582662067</v>
+        <v>1.007149977736095</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040994912915216</v>
+        <v>1.038247938385589</v>
       </c>
       <c r="J13">
-        <v>1.065213994963236</v>
+        <v>1.012035006849157</v>
       </c>
       <c r="K13">
-        <v>1.062378119787077</v>
+        <v>1.020916383738584</v>
       </c>
       <c r="L13">
-        <v>1.067161851225112</v>
+        <v>1.014730356107538</v>
       </c>
       <c r="M13">
-        <v>1.075162228740697</v>
+        <v>1.02209788735715</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059011257376326</v>
+        <v>0.9830749768915369</v>
       </c>
       <c r="D14">
-        <v>1.059059420565754</v>
+        <v>1.007100975505616</v>
       </c>
       <c r="E14">
-        <v>1.063891310983164</v>
+        <v>1.000940249051607</v>
       </c>
       <c r="F14">
-        <v>1.071925417022796</v>
+        <v>1.00848100170321</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041050259936621</v>
+        <v>1.038666365197523</v>
       </c>
       <c r="J14">
-        <v>1.065418463741438</v>
+        <v>1.013205897528436</v>
       </c>
       <c r="K14">
-        <v>1.062546720805812</v>
+        <v>1.021907003734722</v>
       </c>
       <c r="L14">
-        <v>1.067361615251592</v>
+        <v>1.015861401024196</v>
       </c>
       <c r="M14">
-        <v>1.075367834986453</v>
+        <v>1.023261493116182</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059174133809282</v>
+        <v>0.9840255813776291</v>
       </c>
       <c r="D15">
-        <v>1.059182704958273</v>
+        <v>1.007808748809911</v>
       </c>
       <c r="E15">
-        <v>1.064033770262268</v>
+        <v>1.001736807379197</v>
       </c>
       <c r="F15">
-        <v>1.072071317725525</v>
+        <v>1.009296623121351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041084315290195</v>
+        <v>1.038922428850035</v>
       </c>
       <c r="J15">
-        <v>1.065544405683791</v>
+        <v>1.013923139017772</v>
       </c>
       <c r="K15">
-        <v>1.062650557810969</v>
+        <v>1.022513773053134</v>
       </c>
       <c r="L15">
-        <v>1.067484663226367</v>
+        <v>1.016554298307594</v>
       </c>
       <c r="M15">
-        <v>1.075494482143668</v>
+        <v>1.023974357206368</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060121705269048</v>
+        <v>0.9894766731550078</v>
       </c>
       <c r="D16">
-        <v>1.059899823851725</v>
+        <v>1.011870277943967</v>
       </c>
       <c r="E16">
-        <v>1.064862639850438</v>
+        <v>1.006308552664682</v>
       </c>
       <c r="F16">
-        <v>1.072920210209623</v>
+        <v>1.013977915061474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041281834550928</v>
+        <v>1.040386960980815</v>
       </c>
       <c r="J16">
-        <v>1.066276865919066</v>
+        <v>1.018035977074763</v>
       </c>
       <c r="K16">
-        <v>1.06325427101164</v>
+        <v>1.025992409865535</v>
       </c>
       <c r="L16">
-        <v>1.068200352142035</v>
+        <v>1.020528484981179</v>
       </c>
       <c r="M16">
-        <v>1.076231113756611</v>
+        <v>1.028063347965885</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060715710773628</v>
+        <v>0.992826879042274</v>
       </c>
       <c r="D17">
-        <v>1.060349261535749</v>
+        <v>1.014368836823019</v>
       </c>
       <c r="E17">
-        <v>1.065382303904696</v>
+        <v>1.0091216743877</v>
       </c>
       <c r="F17">
-        <v>1.073452427387221</v>
+        <v>1.016858553690564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041405120132821</v>
+        <v>1.041283608848919</v>
       </c>
       <c r="J17">
-        <v>1.066735815867277</v>
+        <v>1.020563528144949</v>
       </c>
       <c r="K17">
-        <v>1.063632384045327</v>
+        <v>1.028129533025479</v>
       </c>
       <c r="L17">
-        <v>1.06864884576039</v>
+        <v>1.022971635807334</v>
       </c>
       <c r="M17">
-        <v>1.076692738838734</v>
+        <v>1.030577310100169</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061062049294344</v>
+        <v>0.9947572009115107</v>
       </c>
       <c r="D18">
-        <v>1.060611271177061</v>
+        <v>1.015809239498525</v>
       </c>
       <c r="E18">
-        <v>1.065685321878091</v>
+        <v>1.010743688656312</v>
       </c>
       <c r="F18">
-        <v>1.073762764986951</v>
+        <v>1.018519533270578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041476810148868</v>
+        <v>1.041798964794226</v>
       </c>
       <c r="J18">
-        <v>1.067003334132588</v>
+        <v>1.022019748615624</v>
       </c>
       <c r="K18">
-        <v>1.063852723293633</v>
+        <v>1.029360552783223</v>
       </c>
       <c r="L18">
-        <v>1.068910287941771</v>
+        <v>1.024379513641251</v>
       </c>
       <c r="M18">
-        <v>1.076961838471457</v>
+        <v>1.032026073138648</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061180119140652</v>
+        <v>0.9954114548283902</v>
       </c>
       <c r="D19">
-        <v>1.060700586132151</v>
+        <v>1.016297569070765</v>
       </c>
       <c r="E19">
-        <v>1.065788627527204</v>
+        <v>1.011293636052466</v>
       </c>
       <c r="F19">
-        <v>1.073868566034593</v>
+        <v>1.019082697682207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041501217263119</v>
+        <v>1.041973417554356</v>
       </c>
       <c r="J19">
-        <v>1.067094520674275</v>
+        <v>1.022513291444916</v>
       </c>
       <c r="K19">
-        <v>1.063927818191211</v>
+        <v>1.029777724939182</v>
       </c>
       <c r="L19">
-        <v>1.068999406573157</v>
+        <v>1.024856719635165</v>
       </c>
       <c r="M19">
-        <v>1.077053567773304</v>
+        <v>1.032517150459051</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060651993607725</v>
+        <v>0.9924699192070233</v>
       </c>
       <c r="D20">
-        <v>1.060301055615952</v>
+        <v>1.014102535927991</v>
       </c>
       <c r="E20">
-        <v>1.065326558559462</v>
+        <v>1.008821819395795</v>
       </c>
       <c r="F20">
-        <v>1.073395335459162</v>
+        <v>1.016551498164749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041391915563812</v>
+        <v>1.041188203933541</v>
       </c>
       <c r="J20">
-        <v>1.066686593485869</v>
+        <v>1.020294230947483</v>
       </c>
       <c r="K20">
-        <v>1.063591837609974</v>
+        <v>1.02790186052814</v>
       </c>
       <c r="L20">
-        <v>1.068600742871539</v>
+        <v>1.022711301378272</v>
       </c>
       <c r="M20">
-        <v>1.076643227265906</v>
+        <v>1.030309421843036</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058933404236012</v>
+        <v>0.9826191557187044</v>
       </c>
       <c r="D21">
-        <v>1.059000489936498</v>
+        <v>1.00676164845035</v>
       </c>
       <c r="E21">
-        <v>1.063823218435758</v>
+        <v>1.000558368107954</v>
       </c>
       <c r="F21">
-        <v>1.07185567954249</v>
+        <v>1.008089984242012</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041033971156993</v>
+        <v>1.038543513853153</v>
       </c>
       <c r="J21">
-        <v>1.065358260713144</v>
+        <v>1.01286197586052</v>
       </c>
       <c r="K21">
-        <v>1.062497081108907</v>
+        <v>1.021616041748125</v>
       </c>
       <c r="L21">
-        <v>1.067302796657958</v>
+        <v>1.015529169750654</v>
       </c>
       <c r="M21">
-        <v>1.075307296088613</v>
+        <v>1.022919693373885</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05785159093597</v>
+        <v>0.9761862484521971</v>
       </c>
       <c r="D22">
-        <v>1.05818148072005</v>
+        <v>1.001976705706711</v>
       </c>
       <c r="E22">
-        <v>1.062877128984109</v>
+        <v>0.9951741214728411</v>
       </c>
       <c r="F22">
-        <v>1.070886734873252</v>
+        <v>1.002577104567723</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040806920128906</v>
+        <v>1.036805337156574</v>
       </c>
       <c r="J22">
-        <v>1.06452142966494</v>
+        <v>1.008008439221462</v>
       </c>
       <c r="K22">
-        <v>1.061806862160726</v>
+        <v>1.017509105115408</v>
       </c>
       <c r="L22">
-        <v>1.066485279519102</v>
+        <v>1.010841790015674</v>
       </c>
       <c r="M22">
-        <v>1.074465878792817</v>
+        <v>1.018097680806258</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058425203407647</v>
+        <v>0.9796204485223806</v>
       </c>
       <c r="D23">
-        <v>1.058615777064443</v>
+        <v>1.004530222567676</v>
       </c>
       <c r="E23">
-        <v>1.063378754224119</v>
+        <v>0.9980472927444655</v>
       </c>
       <c r="F23">
-        <v>1.071400478206472</v>
+        <v>1.005518873964634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040927474057438</v>
+        <v>1.037734259668833</v>
       </c>
       <c r="J23">
-        <v>1.06496520843903</v>
+        <v>1.010599444586565</v>
       </c>
       <c r="K23">
-        <v>1.062172942089881</v>
+        <v>1.019701721563992</v>
       </c>
       <c r="L23">
-        <v>1.066918799736614</v>
+        <v>1.013343821665404</v>
       </c>
       <c r="M23">
-        <v>1.074912070609507</v>
+        <v>1.020671491159586</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060680785069293</v>
+        <v>0.9926312872674916</v>
       </c>
       <c r="D24">
-        <v>1.060322838228284</v>
+        <v>1.0142229180904</v>
       </c>
       <c r="E24">
-        <v>1.065351747770016</v>
+        <v>1.008957368956194</v>
       </c>
       <c r="F24">
-        <v>1.073421133139955</v>
+        <v>1.016690302618811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041397882821241</v>
+        <v>1.041231336860723</v>
       </c>
       <c r="J24">
-        <v>1.066708835516142</v>
+        <v>1.020415970373473</v>
       </c>
       <c r="K24">
-        <v>1.063610159440827</v>
+        <v>1.028004783759176</v>
       </c>
       <c r="L24">
-        <v>1.068622478980505</v>
+        <v>1.022828988184723</v>
       </c>
       <c r="M24">
-        <v>1.076665599904441</v>
+        <v>1.03043052318686</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06329299933894</v>
+        <v>1.00680518669784</v>
       </c>
       <c r="D25">
-        <v>1.062298321835475</v>
+        <v>1.024811355289603</v>
       </c>
       <c r="E25">
-        <v>1.067637657734829</v>
+        <v>1.020886119404077</v>
       </c>
       <c r="F25">
-        <v>1.075762257629974</v>
+        <v>1.028906147046138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041935126903195</v>
+        <v>1.044992037054784</v>
       </c>
       <c r="J25">
-        <v>1.068725196677537</v>
+        <v>1.031105679693068</v>
       </c>
       <c r="K25">
-        <v>1.065269838600204</v>
+        <v>1.037036340448408</v>
       </c>
       <c r="L25">
-        <v>1.070593380743781</v>
+        <v>1.033168631919317</v>
       </c>
       <c r="M25">
-        <v>1.078694275121936</v>
+        <v>1.041071712660396</v>
       </c>
     </row>
   </sheetData>
